--- a/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.3345770281766827</v>
+        <v>3.3345770910023176</v>
       </c>
       <c r="C2">
-        <v>4.3434249408368162</v>
+        <v>4.3434250009749702</v>
       </c>
       <c r="D2">
-        <v>28.436445449273549</v>
+        <v>28.436442356340329</v>
       </c>
       <c r="E2">
-        <v>32.222066991510253</v>
+        <v>32.222065813857014</v>
       </c>
       <c r="F2">
-        <v>12.449730298072813</v>
+        <v>12.449729900964504</v>
       </c>
       <c r="G2">
-        <v>8.4586740507876481</v>
+        <v>8.4586741079904861</v>
       </c>
       <c r="H2">
-        <v>21.091887173434223</v>
+        <v>21.091886666646168</v>
       </c>
       <c r="I2">
-        <v>5.0960009281211338</v>
+        <v>5.0960009535269251</v>
       </c>
       <c r="J2">
-        <v>25.131305826270321</v>
+        <v>25.131306189099742</v>
       </c>
       <c r="K2">
-        <v>17.273179034715255</v>
+        <v>17.27317916115144</v>
       </c>
       <c r="L2">
-        <v>6.24709115637358</v>
+        <v>6.247091196881323</v>
       </c>
       <c r="M2">
-        <v>3.8236837521467444</v>
+        <v>3.8236836873366995</v>
       </c>
       <c r="N2">
-        <v>0.17608718972344353</v>
+        <v>0.17608719216932023</v>
       </c>
       <c r="O2">
-        <v>6.2174364794220143</v>
+        <v>6.2174365963241414</v>
       </c>
       <c r="P2">
-        <v>7.9794907503228174</v>
+        <v>7.9794906489936892</v>
       </c>
       <c r="Q2">
-        <v>4.3390984327985906</v>
+        <v>4.3390983945695893</v>
       </c>
       <c r="R2">
-        <v>6.3177588788154129</v>
+        <v>6.317758840049482</v>
       </c>
       <c r="S2">
-        <v>8.7625884796968379</v>
+        <v>8.7625866212507884</v>
       </c>
       <c r="T2">
-        <v>0.73562314161845488</v>
+        <v>0.73562316242314496</v>
       </c>
       <c r="U2">
-        <v>6.0523881753775743</v>
+        <v>6.0523880813756215</v>
       </c>
       <c r="V2">
-        <v>18.076136837443716</v>
+        <v>18.076136840067086</v>
       </c>
       <c r="W2">
-        <v>8.0951584984640608</v>
+        <v>8.095158351799018</v>
       </c>
       <c r="X2">
-        <v>6.3409528984137946</v>
+        <v>6.3409525350971663</v>
       </c>
       <c r="Y2">
-        <v>2.1230328481313654</v>
+        <v>2.123032655199744</v>
       </c>
       <c r="AA2">
-        <v>12.1872808871074</v>
+        <v>12.187281349107293</v>
       </c>
       <c r="AB2">
-        <v>6.1267878685498411</v>
+        <v>6.1267880708839328</v>
       </c>
       <c r="AC2">
-        <v>16.455285334025156</v>
+        <v>16.455284387629938</v>
       </c>
       <c r="AD2">
-        <v>16.944216689062557</v>
+        <v>16.944214100970498</v>
       </c>
       <c r="AE2">
-        <v>20.348823981325481</v>
+        <v>20.348823155554111</v>
       </c>
       <c r="AF2">
-        <v>8.7336164908049305</v>
+        <v>8.7336163222653251</v>
       </c>
       <c r="AG2">
-        <v>19.499225216720291</v>
+        <v>19.499224960893166</v>
       </c>
       <c r="AH2">
-        <v>2.7565451892028872</v>
+        <v>2.7565450903239621</v>
       </c>
       <c r="AI2">
-        <v>24.477377104083057</v>
+        <v>24.477377952393425</v>
       </c>
       <c r="AJ2">
-        <v>20.121593551104493</v>
+        <v>20.121593635810171</v>
       </c>
       <c r="AK2">
-        <v>6.2109034666943685</v>
+        <v>6.2109032599765603</v>
       </c>
       <c r="AL2">
-        <v>3.9807146057992626</v>
+        <v>3.9807147644782988</v>
       </c>
       <c r="AM2">
-        <v>2.3066508059017683</v>
+        <v>2.3066508007200173</v>
       </c>
       <c r="AN2">
-        <v>3.8174092886040469</v>
+        <v>3.817409235023514</v>
       </c>
       <c r="AO2">
-        <v>6.3649074639042489</v>
+        <v>6.3649076500224302</v>
       </c>
       <c r="AP2">
-        <v>4.3872787638075215</v>
+        <v>4.3872787524640504</v>
       </c>
       <c r="AQ2">
-        <v>3.9410393728416273</v>
+        <v>3.9410391808256309</v>
       </c>
       <c r="AR2">
-        <v>6.8319236236249763</v>
+        <v>6.8319236718472807</v>
       </c>
       <c r="AS2">
-        <v>5.6765510053821089</v>
+        <v>5.6765507228519665</v>
       </c>
       <c r="AT2">
-        <v>1.374978403035477</v>
+        <v>1.3749783936281628</v>
       </c>
       <c r="AU2">
-        <v>10.120370822495591</v>
+        <v>10.120371023972044</v>
       </c>
       <c r="AV2">
-        <v>5.7363283501590798</v>
+        <v>5.7363283571531261</v>
       </c>
       <c r="AW2">
-        <v>1.4858081431912671</v>
+        <v>1.4858081093526274</v>
       </c>
       <c r="AX2">
-        <v>0.96320547078010643</v>
+        <v>0.96320546894878001</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.695930758769158</v>
+        <v>20.695930230505503</v>
       </c>
       <c r="C3">
-        <v>7.4443920557033065</v>
+        <v>7.4443919067050102</v>
       </c>
       <c r="D3">
-        <v>5.4099212441065099</v>
+        <v>5.4099213355728715</v>
       </c>
       <c r="E3">
-        <v>24.657369893393366</v>
+        <v>24.657370191818057</v>
       </c>
       <c r="F3">
-        <v>6.8340738362892948</v>
+        <v>6.8340735001024289</v>
       </c>
       <c r="G3">
-        <v>7.4084370035465978</v>
+        <v>7.4084371222331002</v>
       </c>
       <c r="H3">
-        <v>21.750121374665415</v>
+        <v>21.75012122922514</v>
       </c>
       <c r="I3">
-        <v>4.6526747702739222</v>
+        <v>4.6526750030650694</v>
       </c>
       <c r="J3">
-        <v>16.681293280686539</v>
+        <v>16.681293977397647</v>
       </c>
       <c r="K3">
-        <v>6.6677338779409769</v>
+        <v>6.6677340313079068</v>
       </c>
       <c r="L3">
-        <v>3.4177374373592642</v>
+        <v>3.417737356682133</v>
       </c>
       <c r="M3">
-        <v>13.416507962294693</v>
+        <v>13.40770266027415</v>
       </c>
       <c r="N3">
-        <v>1.2988961907198597</v>
+        <v>1.2988960876363769</v>
       </c>
       <c r="O3">
-        <v>7.900352178490083</v>
+        <v>7.900352088866569</v>
       </c>
       <c r="P3">
-        <v>6.8683276123392076</v>
+        <v>6.8683274745935678</v>
       </c>
       <c r="Q3">
-        <v>4.8057293078833476</v>
+        <v>4.8057292481274434</v>
       </c>
       <c r="R3">
-        <v>13.637047143822937</v>
+        <v>13.637047579725522</v>
       </c>
       <c r="S3">
-        <v>1.2242076706560703</v>
+        <v>1.2242076969483811</v>
       </c>
       <c r="T3">
-        <v>0.3789510756049852</v>
+        <v>0.37895110283941003</v>
       </c>
       <c r="U3">
-        <v>12.269207366746205</v>
+        <v>12.269207257960867</v>
       </c>
       <c r="V3">
-        <v>8.7411353407049983</v>
+        <v>8.7411353161652983</v>
       </c>
       <c r="W3">
-        <v>1.3168002110660688</v>
+        <v>1.316800211150406</v>
       </c>
       <c r="X3">
-        <v>3.06657561598304</v>
+        <v>3.0665756029827258</v>
       </c>
       <c r="Y3">
-        <v>3.1634394310845302</v>
+        <v>3.1634393934034946</v>
       </c>
       <c r="AA3">
-        <v>11.983250365910376</v>
+        <v>11.983250919621431</v>
       </c>
       <c r="AB3">
-        <v>25.63135331583187</v>
+        <v>25.631350402647922</v>
       </c>
       <c r="AC3">
-        <v>13.063727990016606</v>
+        <v>13.063727617027217</v>
       </c>
       <c r="AD3">
-        <v>17.574564333335452</v>
+        <v>17.574564603033387</v>
       </c>
       <c r="AE3">
-        <v>19.155979799642935</v>
+        <v>19.155979189510695</v>
       </c>
       <c r="AF3">
-        <v>4.9804975495261035</v>
+        <v>4.980497833389995</v>
       </c>
       <c r="AG3">
-        <v>17.768410896401388</v>
+        <v>17.768413661280015</v>
       </c>
       <c r="AH3">
-        <v>2.687318177597291</v>
+        <v>2.6873181883516288</v>
       </c>
       <c r="AI3">
-        <v>19.145189164768055</v>
+        <v>19.145187843056426</v>
       </c>
       <c r="AJ3">
-        <v>10.252424378284129</v>
+        <v>10.25242487657734</v>
       </c>
       <c r="AK3">
-        <v>4.3281157367551</v>
+        <v>4.3281155010440617</v>
       </c>
       <c r="AL3">
-        <v>9.5967155309202887</v>
+        <v>9.5967156441544912</v>
       </c>
       <c r="AM3">
-        <v>6.3196569137925733</v>
+        <v>6.319657363627865</v>
       </c>
       <c r="AN3">
-        <v>10.676319890511088</v>
+        <v>10.676319606241041</v>
       </c>
       <c r="AO3">
-        <v>7.9027175039107433</v>
+        <v>7.9027174183356506</v>
       </c>
       <c r="AP3">
-        <v>1.116833685767044</v>
+        <v>1.1168337117836384</v>
       </c>
       <c r="AQ3">
-        <v>3.5443662872718869</v>
+        <v>3.5443662757144088</v>
       </c>
       <c r="AR3">
-        <v>1.5901219334846275</v>
+        <v>1.590121936640108</v>
       </c>
       <c r="AS3">
-        <v>1.5714240265729211</v>
+        <v>1.5714239614213779</v>
       </c>
       <c r="AT3">
-        <v>4.4900430908400066</v>
+        <v>4.4900431789088371</v>
       </c>
       <c r="AU3">
-        <v>13.149079367226236</v>
+        <v>13.149079735471684</v>
       </c>
       <c r="AV3">
-        <v>6.7449891381815945</v>
+        <v>6.7449887040493648</v>
       </c>
       <c r="AW3">
-        <v>8.4743836074951098</v>
+        <v>8.4743836744361971</v>
       </c>
       <c r="AX3">
-        <v>3.7793546315689559</v>
+        <v>3.7793545124560657</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>3.3345770910023176</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.3434250009749702</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>28.436442356340329</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>32.222065813857014</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>12.449729900964504</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.4586741079904861</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>21.091886666646168</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.0960009535269251</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>25.131306189099742</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.27317916115144</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.247091196881323</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.8236836873366995</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.17608719216932023</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.2174365963241414</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.9794906489936892</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.3390983945695893</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.317758840049482</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>8.7625866212507884</v>
@@ -585,55 +474,55 @@
         <v>2.123032655199744</v>
       </c>
       <c r="AA2">
-        <v>12.187281349107293</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>6.1267880708839328</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>16.455284387629938</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>16.944214100970498</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>20.348823155554111</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.7336163222653251</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>19.499224960893166</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.7565450903239621</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>24.477377952393425</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>20.121593635810171</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>6.2109032599765603</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.9807147644782988</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.3066508007200173</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.817409235023514</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>6.3649076500224302</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>4.3872787524640504</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.9410391808256309</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>6.8319236718472807</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.96320546894878001</v>
       </c>
+      <c r="AY2">
+        <v>3.0861729566442837</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>20.695930230505503</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.4443919067050102</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.4099213355728715</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>24.657370191818057</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.8340735001024289</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.4084371222331002</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>21.75012122922514</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.6526750030650694</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.681293977397647</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.6677340313079068</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.417737356682133</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.40770266027415</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.2988960876363769</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.900352088866569</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>6.8683274745935678</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.8057292481274434</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>13.637047579725522</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>1.2242076969483811</v>
@@ -734,55 +623,55 @@
         <v>3.1634393934034946</v>
       </c>
       <c r="AA3">
-        <v>11.983250919621431</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>25.631350402647922</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>13.063727617027217</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.574564603033387</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>19.155979189510695</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.980497833389995</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>17.768413661280015</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.6873181883516288</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>19.145187843056426</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>10.25242487657734</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.3281155010440617</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>9.5967156441544912</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.319657363627865</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>10.676319606241041</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>7.9027174183356506</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.1168337117836384</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.5443662757144088</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.590121936640108</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>3.7793545124560657</v>
+      </c>
+      <c r="AY3">
+        <v>12.70682021350766</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.3345770281766827</v>
+        <v>4.3508091582938189</v>
       </c>
       <c r="C2">
-        <v>4.3434249408368162</v>
+        <v>6.317758840049482</v>
       </c>
       <c r="D2">
-        <v>24.98289373996672</v>
+        <v>3.817409235023514</v>
       </c>
       <c r="E2">
-        <v>32.222066991510253</v>
+        <v>3.9410391808256309</v>
       </c>
       <c r="F2">
         <v>12.449730298072813</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.695930758769158</v>
+        <v>7.900352088866569</v>
       </c>
       <c r="C3">
-        <v>7.4443920557033065</v>
+        <v>13.637047579725522</v>
       </c>
       <c r="D3">
-        <v>5.4099212441065898</v>
+        <v>10.676319606241041</v>
       </c>
       <c r="E3">
-        <v>24.657369893393366</v>
+        <v>3.052185905350814</v>
       </c>
       <c r="F3">
         <v>6.8340738362892948</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3.3345770281766827</v>
-      </c>
       <c r="C2">
-        <v>4.3434249408368162</v>
+        <v>4.3508091582938189</v>
       </c>
       <c r="D2">
-        <v>24.98289373996672</v>
+        <v>2.3066508007200173</v>
       </c>
       <c r="E2">
-        <v>32.222066991510253</v>
+        <v>3.817409235023514</v>
       </c>
       <c r="F2">
         <v>12.449730298072813</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.695930758769158</v>
+        <v>1.2988960876363769</v>
       </c>
       <c r="C3">
-        <v>7.4443920557033065</v>
+        <v>7.900352088866569</v>
       </c>
       <c r="D3">
-        <v>5.4099212441065898</v>
+        <v>6.319657363627865</v>
       </c>
       <c r="E3">
-        <v>24.657369893393366</v>
+        <v>10.676319606241041</v>
       </c>
       <c r="F3">
         <v>6.8340738362892948</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>3.3345770910023176</v>
+      </c>
       <c r="C2">
+        <v>4.3434250009749702</v>
+      </c>
+      <c r="D2">
+        <v>24.982888629557131</v>
+      </c>
+      <c r="E2">
+        <v>32.222065813857014</v>
+      </c>
+      <c r="F2">
+        <v>12.449729900964504</v>
+      </c>
+      <c r="G2">
+        <v>8.4586741079904861</v>
+      </c>
+      <c r="H2">
+        <v>21.091886666646168</v>
+      </c>
+      <c r="I2">
+        <v>5.0960009535269251</v>
+      </c>
+      <c r="J2">
+        <v>25.131306189099742</v>
+      </c>
+      <c r="K2">
+        <v>17.27317916115144</v>
+      </c>
+      <c r="L2">
+        <v>6.247091196881323</v>
+      </c>
+      <c r="M2">
+        <v>3.8236836873366995</v>
+      </c>
+      <c r="O2">
         <v>4.3508091582938189</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>7.9794906489936892</v>
+      </c>
+      <c r="Q2">
+        <v>4.3390983945695893</v>
+      </c>
+      <c r="R2">
+        <v>6.317758840049482</v>
+      </c>
+      <c r="S2">
+        <v>8.7625866212507884</v>
+      </c>
+      <c r="T2">
+        <v>0.60526676764452803</v>
+      </c>
+      <c r="U2">
+        <v>6.0523880813756215</v>
+      </c>
+      <c r="V2">
+        <v>18.076136840067086</v>
+      </c>
+      <c r="W2">
+        <v>8.095158351799018</v>
+      </c>
+      <c r="X2">
+        <v>6.3409525350971663</v>
+      </c>
+      <c r="Y2">
+        <v>1.3525557347417954</v>
+      </c>
+      <c r="AA2">
+        <v>12.187281349107293</v>
+      </c>
+      <c r="AB2">
+        <v>6.1267880708839328</v>
+      </c>
+      <c r="AC2">
+        <v>16.455284387629938</v>
+      </c>
+      <c r="AD2">
+        <v>16.944214100970498</v>
+      </c>
+      <c r="AE2">
+        <v>20.348823155554111</v>
+      </c>
+      <c r="AF2">
+        <v>8.7336163222653251</v>
+      </c>
+      <c r="AG2">
+        <v>19.499224960893166</v>
+      </c>
+      <c r="AH2">
+        <v>4.2568034693139607</v>
+      </c>
+      <c r="AI2">
+        <v>24.477377952393425</v>
+      </c>
+      <c r="AJ2">
+        <v>20.121593635810171</v>
+      </c>
+      <c r="AK2">
+        <v>6.2109032599765603</v>
+      </c>
+      <c r="AL2">
+        <v>3.9807147644782988</v>
+      </c>
+      <c r="AM2">
         <v>2.3066508007200173</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.817409235023514</v>
       </c>
-      <c r="F2">
-        <v>12.449730298072813</v>
-      </c>
-      <c r="G2">
-        <v>8.4586740507876481</v>
-      </c>
-      <c r="H2">
-        <v>21.091887173434223</v>
-      </c>
-      <c r="I2">
-        <v>5.0960009281211338</v>
-      </c>
-      <c r="J2">
-        <v>25.131305826270321</v>
-      </c>
-      <c r="K2">
-        <v>17.273179034715255</v>
-      </c>
-      <c r="L2">
-        <v>6.24709115637358</v>
-      </c>
-      <c r="M2">
-        <v>3.8236837521467444</v>
-      </c>
-      <c r="O2">
-        <v>4.3508092477998872</v>
-      </c>
-      <c r="P2">
-        <v>7.9794907503228174</v>
-      </c>
-      <c r="Q2">
-        <v>4.3390984327985906</v>
-      </c>
-      <c r="R2">
-        <v>6.3177588788154129</v>
-      </c>
-      <c r="S2">
-        <v>8.7625884796968379</v>
-      </c>
-      <c r="T2">
-        <v>0.60526676885473873</v>
-      </c>
-      <c r="U2">
-        <v>6.0523881753775743</v>
-      </c>
-      <c r="V2">
-        <v>18.076136837443716</v>
-      </c>
-      <c r="W2">
-        <v>8.0951584984640608</v>
-      </c>
-      <c r="X2">
-        <v>6.3409528984137946</v>
-      </c>
-      <c r="Y2">
-        <v>1.3525558011955083</v>
-      </c>
-      <c r="AA2">
-        <v>12.1872808871074</v>
-      </c>
-      <c r="AB2">
-        <v>6.1267878685498411</v>
-      </c>
-      <c r="AC2">
-        <v>16.455285334025156</v>
-      </c>
-      <c r="AD2">
-        <v>16.944216689062557</v>
-      </c>
-      <c r="AE2">
-        <v>20.348823981325481</v>
-      </c>
-      <c r="AF2">
-        <v>8.7336164908049305</v>
-      </c>
-      <c r="AG2">
-        <v>19.499225216720291</v>
-      </c>
-      <c r="AH2">
-        <v>4.2568037389775641</v>
-      </c>
-      <c r="AI2">
-        <v>24.477377104083057</v>
-      </c>
-      <c r="AJ2">
-        <v>20.121593551104493</v>
-      </c>
-      <c r="AK2">
-        <v>6.2109034666943685</v>
-      </c>
-      <c r="AL2">
-        <v>3.9807146057992626</v>
-      </c>
-      <c r="AM2">
-        <v>2.3066508059017683</v>
-      </c>
-      <c r="AN2">
-        <v>3.8174092886040469</v>
-      </c>
       <c r="AO2">
-        <v>6.3649074639042489</v>
+        <v>6.3649076500224302</v>
       </c>
       <c r="AP2">
-        <v>4.4726631240496282</v>
+        <v>4.4726629626431542</v>
       </c>
       <c r="AQ2">
-        <v>3.9410393728416273</v>
+        <v>3.9410391808256309</v>
       </c>
       <c r="AR2">
-        <v>6.8319236236249763</v>
+        <v>6.8319236718472807</v>
       </c>
       <c r="AS2">
-        <v>5.6765510053821089</v>
+        <v>5.6765507228519665</v>
       </c>
       <c r="AT2">
-        <v>1.374978403035477</v>
+        <v>1.3749783936281628</v>
       </c>
       <c r="AU2">
-        <v>10.120370822495591</v>
+        <v>10.120371023972044</v>
       </c>
       <c r="AV2">
-        <v>5.7363283501590798</v>
+        <v>5.7363283571531261</v>
       </c>
       <c r="AW2">
-        <v>1.4858081431912671</v>
+        <v>1.4858081093526274</v>
       </c>
       <c r="AX2">
-        <v>0.96320547078010643</v>
+        <v>0.96320546894878001</v>
       </c>
       <c r="AY2">
-        <v>3.0861730167691079</v>
+        <v>3.0861729566442837</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>20.695930230505503</v>
+      </c>
+      <c r="C3">
+        <v>7.4443919067050102</v>
+      </c>
+      <c r="D3">
+        <v>5.4099213355728626</v>
+      </c>
+      <c r="E3">
+        <v>24.657370191818057</v>
+      </c>
+      <c r="F3">
+        <v>6.8340735001024289</v>
+      </c>
+      <c r="G3">
+        <v>7.4084371222331002</v>
+      </c>
+      <c r="H3">
+        <v>21.75012122922514</v>
+      </c>
+      <c r="I3">
+        <v>6.8935412999171843</v>
+      </c>
+      <c r="J3">
+        <v>16.681293977397647</v>
+      </c>
+      <c r="K3">
+        <v>6.6677340313079068</v>
+      </c>
+      <c r="L3">
+        <v>3.417737356682133</v>
+      </c>
+      <c r="M3">
+        <v>13.40770266027415</v>
+      </c>
+      <c r="N3">
         <v>1.2988960876363769</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>7.900352088866569</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>6.8683274745935678</v>
+      </c>
+      <c r="Q3">
+        <v>4.8057292481274434</v>
+      </c>
+      <c r="R3">
+        <v>13.637047579725522</v>
+      </c>
+      <c r="S3">
+        <v>1.420352865814118</v>
+      </c>
+      <c r="T3">
+        <v>0.39053737561208202</v>
+      </c>
+      <c r="U3">
+        <v>12.269207257960867</v>
+      </c>
+      <c r="V3">
+        <v>8.7411353161652983</v>
+      </c>
+      <c r="W3">
+        <v>1.1107931812379011</v>
+      </c>
+      <c r="X3">
+        <v>3.0665756029827258</v>
+      </c>
+      <c r="Y3">
+        <v>3.1634393934034946</v>
+      </c>
+      <c r="AA3">
+        <v>11.983250919621431</v>
+      </c>
+      <c r="AB3">
+        <v>25.631350402647922</v>
+      </c>
+      <c r="AC3">
+        <v>13.298912325673921</v>
+      </c>
+      <c r="AD3">
+        <v>17.574564603033387</v>
+      </c>
+      <c r="AE3">
+        <v>19.155979189510695</v>
+      </c>
+      <c r="AF3">
+        <v>4.980497833389995</v>
+      </c>
+      <c r="AG3">
+        <v>17.768413661280015</v>
+      </c>
+      <c r="AH3">
+        <v>0.14084291500713902</v>
+      </c>
+      <c r="AI3">
+        <v>19.145187843056426</v>
+      </c>
+      <c r="AJ3">
+        <v>10.25242487657734</v>
+      </c>
+      <c r="AK3">
+        <v>4.3281155010440617</v>
+      </c>
+      <c r="AL3">
+        <v>9.5967156441544912</v>
+      </c>
+      <c r="AM3">
         <v>6.319657363627865</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>10.676319606241041</v>
       </c>
-      <c r="F3">
-        <v>6.8340738362892948</v>
-      </c>
-      <c r="G3">
-        <v>7.4084370035465978</v>
-      </c>
-      <c r="H3">
-        <v>21.750121374665415</v>
-      </c>
-      <c r="I3">
-        <v>6.8935409501138478</v>
-      </c>
-      <c r="J3">
-        <v>16.681293280686539</v>
-      </c>
-      <c r="K3">
-        <v>6.6677338779409769</v>
-      </c>
-      <c r="L3">
-        <v>3.4177374373592642</v>
-      </c>
-      <c r="M3">
-        <v>13.416507962294693</v>
-      </c>
-      <c r="N3">
-        <v>1.2988961907198597</v>
-      </c>
-      <c r="O3">
-        <v>7.900352178490083</v>
-      </c>
-      <c r="P3">
-        <v>6.8683276123392076</v>
-      </c>
-      <c r="Q3">
-        <v>4.8057293078833476</v>
-      </c>
-      <c r="R3">
-        <v>13.637047143822937</v>
-      </c>
-      <c r="S3">
-        <v>1.4203528208147547</v>
-      </c>
-      <c r="T3">
-        <v>0.39053734469735824</v>
-      </c>
-      <c r="U3">
-        <v>12.269207366746205</v>
-      </c>
-      <c r="V3">
-        <v>8.7411353407049983</v>
-      </c>
-      <c r="W3">
-        <v>1.1107930009713054</v>
-      </c>
-      <c r="X3">
-        <v>3.06657561598304</v>
-      </c>
-      <c r="Y3">
-        <v>3.1634394310845302</v>
-      </c>
-      <c r="AA3">
-        <v>11.983250365910376</v>
-      </c>
-      <c r="AB3">
-        <v>25.63135331583187</v>
-      </c>
-      <c r="AC3">
-        <v>13.298912597319084</v>
-      </c>
-      <c r="AD3">
-        <v>17.574564333335452</v>
-      </c>
-      <c r="AE3">
-        <v>19.155979799642935</v>
-      </c>
-      <c r="AF3">
-        <v>4.9804975495261035</v>
-      </c>
-      <c r="AG3">
-        <v>17.768410896401388</v>
-      </c>
-      <c r="AH3">
-        <v>0.14084290663260471</v>
-      </c>
-      <c r="AI3">
-        <v>19.145189164768055</v>
-      </c>
-      <c r="AJ3">
-        <v>10.252424378284129</v>
-      </c>
-      <c r="AK3">
-        <v>4.3281157367551</v>
-      </c>
-      <c r="AL3">
-        <v>9.5967155309202887</v>
-      </c>
-      <c r="AM3">
-        <v>6.3196569137925733</v>
-      </c>
-      <c r="AN3">
-        <v>10.676319890511088</v>
-      </c>
       <c r="AO3">
-        <v>7.9027175039107433</v>
+        <v>7.9027174183356506</v>
       </c>
       <c r="AP3">
-        <v>1.6131845591132747</v>
+        <v>1.6131847477906121</v>
       </c>
       <c r="AQ3">
-        <v>3.0521861922323805</v>
+        <v>3.052185905350814</v>
       </c>
       <c r="AR3">
-        <v>1.5901219334846275</v>
+        <v>1.590121936640108</v>
       </c>
       <c r="AS3">
-        <v>1.5714240265729211</v>
+        <v>1.5714239614213779</v>
       </c>
       <c r="AT3">
-        <v>4.4900430908400066</v>
+        <v>4.4900431789088371</v>
       </c>
       <c r="AU3">
-        <v>13.149079367226236</v>
+        <v>13.149079735471684</v>
       </c>
       <c r="AV3">
-        <v>6.7449891381815945</v>
+        <v>6.7449887040493648</v>
       </c>
       <c r="AW3">
-        <v>8.4743836074951098</v>
+        <v>8.4743836744361971</v>
       </c>
       <c r="AX3">
-        <v>3.7793546315689559</v>
+        <v>3.7793545124560657</v>
       </c>
       <c r="AY3">
-        <v>12.70682065924734</v>
+        <v>12.70682021350766</v>
       </c>
     </row>
   </sheetData>
